--- a/GoMikeDesigns.xlsx
+++ b/GoMikeDesigns.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
   <si>
     <t>Category</t>
   </si>
@@ -341,6 +341,39 @@
   </si>
   <si>
     <t>https://developer.mozilla.org/en-US/docs/Web/Accessibility/ARIA/Roles/img_role</t>
+  </si>
+  <si>
+    <t>Gooogle does not use keywords anymore so as it should be removed.</t>
+  </si>
+  <si>
+    <t>Remove keywords.</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/search/blog/2009/09/google-does-not-use-keywords-meta-tag</t>
+  </si>
+  <si>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>Black Hat</t>
+  </si>
+  <si>
+    <t>Links at the end of the web page are broken, having links like that are called Black Hat content so they need to be removed.</t>
+  </si>
+  <si>
+    <t>Remove all broken links.</t>
+  </si>
+  <si>
+    <t>https://www.wordstream.com/black-hat-seo</t>
+  </si>
+  <si>
+    <t>Naming</t>
+  </si>
+  <si>
+    <t>Page2 has no meaning, should be change for something that describe what it is</t>
+  </si>
+  <si>
+    <t>Change Page2 for Contact</t>
   </si>
 </sst>
 </file>
@@ -1455,12 +1488,24 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -1483,12 +1528,24 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="A22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1511,11 +1568,21 @@
       <c r="Z22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="A23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -28877,7 +28944,9 @@
     <hyperlink r:id="rId7" ref="F17"/>
     <hyperlink r:id="rId8" ref="F18"/>
     <hyperlink r:id="rId9" ref="F20"/>
+    <hyperlink r:id="rId10" ref="F21"/>
+    <hyperlink r:id="rId11" ref="F22"/>
   </hyperlinks>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>